--- a/17、18年统计数据格式模板.xlsx
+++ b/17、18年统计数据格式模板.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B7800-AB42-4678-910C-CF0C4F0A94C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E263C709-80BF-4530-8B50-D03E0784F91E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1515" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="17" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3021,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
